--- a/media/output/result/bpic2011_f4_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2011_f4_complex_evaluation_weighted_edit_distance.xlsx
@@ -505,25 +505,25 @@
         <v>227</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>89</v>
+      </c>
+      <c r="F3" t="n">
         <v>138</v>
       </c>
-      <c r="D3" t="n">
-        <v>89</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.6079295154185022</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7561643835616438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/media/output/result/bpic2011_f4_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2011_f4_complex_evaluation_weighted_edit_distance.xlsx
@@ -505,25 +505,25 @@
         <v>227</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.6079295154185022</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.7561643835616438</v>
       </c>
     </row>
     <row r="4">
